--- a/CS101_template.xlsx
+++ b/CS101_template.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>student_id</t>
+          <t>matric_number</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,7 +434,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>ca_score</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>exam_score</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>total</t>
         </is>
       </c>
     </row>
@@ -446,6 +456,8 @@
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
